--- a/biology/Zoologie/Bruant_cendré/Bruant_cendré.xlsx
+++ b/biology/Zoologie/Bruant_cendré/Bruant_cendré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bruant_cendr%C3%A9</t>
+          <t>Bruant_cendré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emberiza cineracea
 Le Bruant cendré (Emberiza cineracea) est une espèce de passereaux appartenant à la famille des Emberizidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruant_cendr%C3%A9</t>
+          <t>Bruant_cendré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">E. c. cineracea : C. L. Brehm, 1855 : sud-ouest de l'Anatolie et îles grecques adjacentes (Skyros, Chios et Lesbos) ;
 E. c. semenowi : Zarudny, 1904 : sud-est de l'Anatolie, nord de l'Iraq et monts Zagros.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruant_cendr%C3%A9</t>
+          <t>Bruant_cendré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche sur les versants rocheux des montagnes sèches.
 </t>
